--- a/DOWNLOADS/EDITAIS/U_984123_E_102025 DISPENSA - DRONE/U_984123_E_102025 DISPENSA - DRONE_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_984123_E_102025 DISPENSA - DRONE/U_984123_E_102025 DISPENSA - DRONE_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Nº</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>ARQUIVO</t>
+  </si>
+  <si>
+    <t>Aeronave Remotamente Pilotada - RPA - (DRONE), conforme especificação em anexo Drone multirrotor com módulo RTK (Real Time Kinematic) integrado; com câmera grande-angular com sensor CMOS de 4/3 e 20 MP, obturador mecânico; distância focal equivalente a 162 mm, 12 MP, zoom híbrido de 56x e itens relacionados, como Kkit de 3 baterias e hub de carregamento.  Aeronave com estrutura multirrotor, braços dobráveis, decolagem e pouso verticais; Autonomia de voo igual ou superior a 30 minutos (com bateria padrão); Velocidade de cruzeiro igual ou superior a 57 km/h (modo de voo normal); Velocidade máxima superior a 70 km/h (modo Sport); Teto operacional máximo de 4.000 metros acima do nível do mar; Sensores anticolisão em todas as direções (frontal, traseiro, lateral, superior e inferior); Motorização elétrica sem escovas (brushless); Câmera visual RGB com sensor CMOS de 4/3”, resolução de 20 MP (5280x3956), obturador mecânico, zoom óptico de no mínimo 3x, zoom digital de no mínimo 16x, e capacidade de zoom híbrido total de no mínimo S6X. Estabilidade da aeronave via sistemas GNSS (GPS + GLONASS + Galileo + BeiDou), com sensores inerciais de movimento nos três eixos (IMU); Transmissão de vídeo em tempo real com alcance de até 15 km (OcuSync Enterprise); Maleta rígida de transporte com proteção contra impacto e compartimentos dedicados para o drone, controle remoto, baterias, carregador e acessórios; Capacidade de voo totalmente autônoma, desde a decolagem até o pouso, por meio de plano de voo definido via software de planejamento de missão, com possibilidade de controle manual quando necessário; Plataforma gimbal estabilizada em 3 eixos para correção de rotação da aeronave, permitindo captura de imagens com campo de visão entre -90º e +30º; Quatro motores de propulsão; Registro automático das coordenadas e dos ângulos de rotação nos três eixos no momento da captura de fotos; Equipamento entregue pronto para uso, bastando conectar a bateria para iniciar a operação; Sistema de segurança automatizado com retorno ao ponto de origem (RTH) em caso de falha de comunicação ou bateria crítica; Resistência a ventos iguais ou superiores a 36 km/h; Receptor integrado para transmissão das informações de voo em tempo real; Aeronave e controle remoto com homologação válida pela Anatel. ELEMENTOS INTEGRANTES Controle remoto com display de no mínimo 5 polegadas compatível com o drone e de mesmo fabricante; Módulo RTK (Real Time Kinematic) integrado — 1 unidade Baterias de vôo inteligentes compatíveis com o drone — 2 unidades Estação de carregamento sequencial de baterias (hub) — 1 unidade Cartão de memória UHS-IL, classe de velocidade 10, com 128 GB — 2 unidades GARANTIA Garantia mínima de 01 (um) ano, com fornecedor ou rede de assistências técnicas credenciadas pelo fabricante, situado em Belo Horizonte.</t>
   </si>
   <si>
     <t>U_984123_E_102025 DISPENSA - DRONE</t>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,28 +440,14 @@
       </c>
     </row>
     <row r="2" spans="1:9">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="I6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_984123_E_102025 DISPENSA - DRONE/U_984123_E_102025 DISPENSA - DRONE_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_984123_E_102025 DISPENSA - DRONE/U_984123_E_102025 DISPENSA - DRONE_master.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/EDITAIS/U_984123_E_102025 DISPENSA - DRONE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_338583F3F613C896492DB0EC9672D71274525C4C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +122,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +174,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +243,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +419,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>

--- a/DOWNLOADS/EDITAIS/U_984123_E_102025 DISPENSA - DRONE/U_984123_E_102025 DISPENSA - DRONE_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_984123_E_102025 DISPENSA - DRONE/U_984123_E_102025 DISPENSA - DRONE_master.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c062993eaa45f7e/.vscode/arte_/DOWNLOADS/EDITAIS/U_984123_E_102025 DISPENSA - DRONE/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_338583F3F613C896492DB0EC9672D71274525C4C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +43,7 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>Aeronave Remotamente Pilotada - RPA - (DRONE), conforme especificação em anexo Drone multirrotor com módulo RTK (Real Time Kinematic) integrado; com câmera grande-angular com sensor CMOS de 4/3 e 20 MP, obturador mecânico; distância focal equivalente a 162 mm, 12 MP, zoom híbrido de 56x e itens relacionados, como Kkit de 3 baterias e hub de carregamento.  Aeronave com estrutura multirrotor, braços dobráveis, decolagem e pouso verticais; Autonomia de voo igual ou superior a 30 minutos (com bateria padrão); Velocidade de cruzeiro igual ou superior a 57 km/h (modo de voo normal); Velocidade máxima superior a 70 km/h (modo Sport); Teto operacional máximo de 4.000 metros acima do nível do mar; Sensores anticolisão em todas as direções (frontal, traseiro, lateral, superior e inferior); Motorização elétrica sem escovas (brushless); Câmera visual RGB com sensor CMOS de 4/3”, resolução de 20 MP (5280x3956), obturador mecânico, zoom óptico de no mínimo 3x, zoom digital de no mínimo 16x, e capacidade de zoom híbrido total de no mínimo S6X. Estabilidade da aeronave via sistemas GNSS (GPS + GLONASS + Galileo + BeiDou), com sensores inerciais de movimento nos três eixos (IMU); Transmissão de vídeo em tempo real com alcance de até 15 km (OcuSync Enterprise); Maleta rígida de transporte com proteção contra impacto e compartimentos dedicados para o drone, controle remoto, baterias, carregador e acessórios; Capacidade de voo totalmente autônoma, desde a decolagem até o pouso, por meio de plano de voo definido via software de planejamento de missão, com possibilidade de controle manual quando necessário; Plataforma gimbal estabilizada em 3 eixos para correção de rotação da aeronave, permitindo captura de imagens com campo de visão entre -90º e +30º; Quatro motores de propulsão; Registro automático das coordenadas e dos ângulos de rotação nos três eixos no momento da captura de fotos; Equipamento entregue pronto para uso, bastando conectar a bateria para iniciar a operação; Sistema de segurança automatizado com retorno ao ponto de origem (RTH) em caso de falha de comunicação ou bateria crítica; Resistência a ventos iguais ou superiores a 36 km/h; Receptor integrado para transmissão das informações de voo em tempo real; Aeronave e controle remoto com homologação válida pela Anatel. ELEMENTOS INTEGRANTES Controle remoto com display de no mínimo 5 polegadas compatível com o drone e de mesmo fabricante; Módulo RTK (Real Time Kinematic) integrado — 1 unidade Baterias de vôo inteligentes compatíveis com o drone — 2 unidades Estação de carregamento sequencial de baterias (hub) — 1 unidade Cartão de memória UHS-IL, classe de velocidade 10, com 128 GB — 2 unidades GARANTIA Garantia mínima de 01 (um) ano, com fornecedor ou rede de assistências técnicas credenciadas pelo fabricante, situado em Belo Horizonte.</t>
+    <t>Aeronave Remotamente Pilotada - RPA - (DRONE), conforme especificação em anexo</t>
   </si>
   <si>
     <t>U_984123_E_102025 DISPENSA - DRONE</t>
@@ -58,8 +52,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,21 +116,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +160,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -208,7 +194,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,10 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,14 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
